--- a/Resume_shortlisted_candidates.xlsx
+++ b/Resume_shortlisted_candidates.xlsx
@@ -367,7 +367,9 @@
       <c r="B2">
         <v>301</v>
       </c>
-      <c r="C2" t="str"/>
+      <c r="C2" t="str">
+        <v>2024-01-18</v>
+      </c>
       <c r="D2" t="str">
         <v>java</v>
       </c>
@@ -380,10 +382,10 @@
       <c r="G2" t="str">
         <v>aditya@gmail.com</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="str">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="str">
         <v>4</v>
       </c>
       <c r="J2" t="str">
@@ -403,7 +405,9 @@
       <c r="B3">
         <v>304</v>
       </c>
-      <c r="C3" t="str"/>
+      <c r="C3" t="str">
+        <v>2024-02-20</v>
+      </c>
       <c r="D3" t="str">
         <v>golang</v>
       </c>
@@ -416,10 +420,10 @@
       <c r="G3" t="str">
         <v>yellaling@mai.com</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="str">
         <v>10</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="str">
         <v>9</v>
       </c>
       <c r="J3" t="str">
@@ -439,7 +443,9 @@
       <c r="B4">
         <v>305</v>
       </c>
-      <c r="C4" t="str"/>
+      <c r="C4" t="str">
+        <v>2024-02-20</v>
+      </c>
       <c r="D4" t="str">
         <v>golang</v>
       </c>
@@ -452,10 +458,10 @@
       <c r="G4" t="str">
         <v>shaik@gmail.com</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="str">
         <v>11</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="str">
         <v>10</v>
       </c>
       <c r="J4" t="str">
@@ -475,7 +481,9 @@
       <c r="B5">
         <v>306</v>
       </c>
-      <c r="C5" t="str"/>
+      <c r="C5" t="str">
+        <v>2024-02-20</v>
+      </c>
       <c r="D5" t="str">
         <v>java</v>
       </c>
@@ -488,10 +496,10 @@
       <c r="G5" t="str">
         <v>saidameer@gmail.com</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="str">
         <v>12</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="str">
         <v>11</v>
       </c>
       <c r="J5" t="str">
@@ -511,7 +519,9 @@
       <c r="B6">
         <v>307</v>
       </c>
-      <c r="C6" t="str"/>
+      <c r="C6" t="str">
+        <v>2024-02-20</v>
+      </c>
       <c r="D6" t="str">
         <v>dotnet</v>
       </c>
@@ -524,10 +534,10 @@
       <c r="G6" t="str">
         <v>arpit@gmail.com</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="str">
         <v>13</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="str">
         <v>12</v>
       </c>
       <c r="J6" t="str">
@@ -547,7 +557,9 @@
       <c r="B7">
         <v>312</v>
       </c>
-      <c r="C7" t="str"/>
+      <c r="C7" t="str">
+        <v>2024-02-20</v>
+      </c>
       <c r="D7" t="str">
         <v>rust</v>
       </c>
@@ -560,10 +572,10 @@
       <c r="G7" t="str">
         <v>aman@gamil.com</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="str">
         <v>10</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="str">
         <v>10</v>
       </c>
       <c r="J7" t="str">
@@ -583,7 +595,9 @@
       <c r="B8">
         <v>314</v>
       </c>
-      <c r="C8" t="str"/>
+      <c r="C8" t="str">
+        <v>2024-01-02</v>
+      </c>
       <c r="D8" t="str">
         <v>perl</v>
       </c>
@@ -596,10 +610,10 @@
       <c r="G8" t="str">
         <v>roy1998@gmail.com</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="str">
         <v>16</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="str">
         <v>15</v>
       </c>
       <c r="J8" t="str">
@@ -619,7 +633,9 @@
       <c r="B9">
         <v>315</v>
       </c>
-      <c r="C9" t="str"/>
+      <c r="C9" t="str">
+        <v>2024-01-02</v>
+      </c>
       <c r="D9" t="str">
         <v>rocketry</v>
       </c>
@@ -632,10 +648,10 @@
       <c r="G9" t="str">
         <v>peter@gmail.com</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="str">
         <v>16</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="str">
         <v>15</v>
       </c>
       <c r="J9" t="str">
@@ -655,7 +671,9 @@
       <c r="B10">
         <v>316</v>
       </c>
-      <c r="C10" t="str"/>
+      <c r="C10" t="str">
+        <v>2024-01-02</v>
+      </c>
       <c r="D10" t="str">
         <v>java</v>
       </c>
@@ -668,10 +686,10 @@
       <c r="G10" t="str">
         <v>surma@gmail.com</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="str">
         <v>16</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="str">
         <v>15</v>
       </c>
       <c r="J10" t="str">
@@ -691,7 +709,9 @@
       <c r="B11">
         <v>317</v>
       </c>
-      <c r="C11" t="str"/>
+      <c r="C11" t="str">
+        <v>2024-01-02</v>
+      </c>
       <c r="D11" t="str">
         <v>java</v>
       </c>
@@ -704,10 +724,10 @@
       <c r="G11" t="str">
         <v>cleveland@gmail.com</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="str">
         <v>16</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="str">
         <v>15</v>
       </c>
       <c r="J11" t="str">
@@ -725,37 +745,115 @@
     </row>
     <row r="12">
       <c r="B12">
+        <v>318</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2024-01-02</v>
+      </c>
+      <c r="D12" t="str">
+        <v>java</v>
+      </c>
+      <c r="E12" t="str">
+        <v>cleveland1</v>
+      </c>
+      <c r="F12" t="str">
+        <v>55667788</v>
+      </c>
+      <c r="G12" t="str">
+        <v>cleveland1@gmail.com</v>
+      </c>
+      <c r="H12" t="str">
+        <v>16</v>
+      </c>
+      <c r="I12" t="str">
+        <v>15</v>
+      </c>
+      <c r="J12" t="str">
+        <v>nasa corporation</v>
+      </c>
+      <c r="K12" t="str">
+        <v>3</v>
+      </c>
+      <c r="L12" t="str">
+        <v>upgraded for further interview level</v>
+      </c>
+      <c r="M12" t="str">
+        <v>shortlisted</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13">
+        <v>319</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2024-01-02</v>
+      </c>
+      <c r="D13" t="str">
+        <v>java</v>
+      </c>
+      <c r="E13" t="str">
+        <v>surmak</v>
+      </c>
+      <c r="F13" t="str">
+        <v>55667788</v>
+      </c>
+      <c r="G13" t="str">
+        <v>surmka@gmail.com</v>
+      </c>
+      <c r="H13" t="str">
+        <v>16</v>
+      </c>
+      <c r="I13" t="str">
+        <v>15</v>
+      </c>
+      <c r="J13" t="str">
+        <v>umbrala corporation</v>
+      </c>
+      <c r="K13" t="str">
+        <v>3</v>
+      </c>
+      <c r="L13" t="str">
+        <v>upgraded for further interview level</v>
+      </c>
+      <c r="M13" t="str">
+        <v>shortlisted</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14">
         <v>320</v>
       </c>
-      <c r="C12" t="str"/>
-      <c r="D12" t="str">
+      <c r="C14" t="str">
+        <v>2024-02-20</v>
+      </c>
+      <c r="D14" t="str">
         <v>golang</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E14" t="str">
         <v>harsh</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F14" t="str">
         <v>123456789</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G14" t="str">
         <v>harsh@mai.com</v>
       </c>
-      <c r="H12">
+      <c r="H14" t="str">
         <v>10</v>
       </c>
-      <c r="I12">
+      <c r="I14" t="str">
         <v>9</v>
       </c>
-      <c r="J12" t="str">
+      <c r="J14" t="str">
         <v>wipro</v>
       </c>
-      <c r="K12" t="str">
-        <v>3</v>
-      </c>
-      <c r="L12" t="str">
+      <c r="K14" t="str">
+        <v>3</v>
+      </c>
+      <c r="L14" t="str">
         <v>can_proceed_for_next_level_of_inteview</v>
       </c>
-      <c r="M12" t="str">
+      <c r="M14" t="str">
         <v>shortlisted</v>
       </c>
     </row>

--- a/Resume_shortlisted_candidates.xlsx
+++ b/Resume_shortlisted_candidates.xlsx
@@ -365,37 +365,37 @@
     </row>
     <row r="2">
       <c r="B2">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>2024-01-18</v>
+        <v>2024-01-02</v>
       </c>
       <c r="D2" t="str">
         <v>java</v>
       </c>
       <c r="E2" t="str">
-        <v>aditya</v>
+        <v>surmakkkk</v>
       </c>
       <c r="F2" t="str">
-        <v>12344567</v>
+        <v>55667788</v>
       </c>
       <c r="G2" t="str">
-        <v>aditya@gmail.com</v>
+        <v>surmkajjjj@gmail.com</v>
       </c>
       <c r="H2" t="str">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I2" t="str">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J2" t="str">
-        <v>tcs</v>
+        <v>umbrala corporation</v>
       </c>
       <c r="K2" t="str">
         <v>3</v>
       </c>
       <c r="L2" t="str">
-        <v>can_proceed_for_next_level_of_inteview</v>
+        <v>upgraded for further interview level</v>
       </c>
       <c r="M2" t="str">
         <v>shortlisted</v>
@@ -403,31 +403,31 @@
     </row>
     <row r="3">
       <c r="B3">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C3" t="str">
-        <v>2024-02-20</v>
+        <v>2024-01-18</v>
       </c>
       <c r="D3" t="str">
-        <v>golang</v>
+        <v>java</v>
       </c>
       <c r="E3" t="str">
-        <v>yellaling</v>
+        <v>aditya</v>
       </c>
       <c r="F3" t="str">
-        <v>123456789</v>
+        <v>12344567</v>
       </c>
       <c r="G3" t="str">
-        <v>yellaling@mai.com</v>
+        <v>aditya@gmail.com</v>
       </c>
       <c r="H3" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I3" t="str">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J3" t="str">
-        <v>wipro</v>
+        <v>tcs</v>
       </c>
       <c r="K3" t="str">
         <v>3</v>
@@ -441,7 +441,7 @@
     </row>
     <row r="4">
       <c r="B4">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C4" t="str">
         <v>2024-02-20</v>
@@ -450,19 +450,19 @@
         <v>golang</v>
       </c>
       <c r="E4" t="str">
-        <v>shaik</v>
+        <v>yellaling</v>
       </c>
       <c r="F4" t="str">
         <v>123456789</v>
       </c>
       <c r="G4" t="str">
-        <v>shaik@gmail.com</v>
+        <v>yellaling@mai.com</v>
       </c>
       <c r="H4" t="str">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" t="str">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" t="str">
         <v>wipro</v>
@@ -479,31 +479,31 @@
     </row>
     <row r="5">
       <c r="B5">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C5" t="str">
         <v>2024-02-20</v>
       </c>
       <c r="D5" t="str">
-        <v>java</v>
+        <v>golang</v>
       </c>
       <c r="E5" t="str">
-        <v>saisameer</v>
+        <v>shaik</v>
       </c>
       <c r="F5" t="str">
         <v>123456789</v>
       </c>
       <c r="G5" t="str">
-        <v>saidameer@gmail.com</v>
+        <v>shaik@gmail.com</v>
       </c>
       <c r="H5" t="str">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="str">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="str">
-        <v>tcs</v>
+        <v>wipro</v>
       </c>
       <c r="K5" t="str">
         <v>3</v>
@@ -517,28 +517,28 @@
     </row>
     <row r="6">
       <c r="B6">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C6" t="str">
         <v>2024-02-20</v>
       </c>
       <c r="D6" t="str">
-        <v>dotnet</v>
+        <v>java</v>
       </c>
       <c r="E6" t="str">
-        <v>arpit</v>
+        <v>saisameer</v>
       </c>
       <c r="F6" t="str">
-        <v>123456768</v>
+        <v>123456789</v>
       </c>
       <c r="G6" t="str">
-        <v>arpit@gmail.com</v>
+        <v>saidameer@gmail.com</v>
       </c>
       <c r="H6" t="str">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="str">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="str">
         <v>tcs</v>
@@ -555,28 +555,28 @@
     </row>
     <row r="7">
       <c r="B7">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C7" t="str">
         <v>2024-02-20</v>
       </c>
       <c r="D7" t="str">
-        <v>rust</v>
+        <v>dotnet</v>
       </c>
       <c r="E7" t="str">
-        <v>aman</v>
+        <v>arpit</v>
       </c>
       <c r="F7" t="str">
-        <v>564321789</v>
+        <v>123456768</v>
       </c>
       <c r="G7" t="str">
-        <v>aman@gamil.com</v>
+        <v>arpit@gmail.com</v>
       </c>
       <c r="H7" t="str">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I7" t="str">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J7" t="str">
         <v>tcs</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="L7" t="str">
-        <v>can_proceed_for_next_level_of_interview</v>
+        <v>can_proceed_for_next_level_of_inteview</v>
       </c>
       <c r="M7" t="str">
         <v>shortlisted</v>
@@ -593,37 +593,37 @@
     </row>
     <row r="8">
       <c r="B8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C8" t="str">
-        <v>2024-01-02</v>
+        <v>2024-02-20</v>
       </c>
       <c r="D8" t="str">
-        <v>perl</v>
+        <v>rust</v>
       </c>
       <c r="E8" t="str">
-        <v>naman roy</v>
+        <v>aman</v>
       </c>
       <c r="F8" t="str">
-        <v>55667788</v>
+        <v>564321789</v>
       </c>
       <c r="G8" t="str">
-        <v>roy1998@gmail.com</v>
+        <v>aman@gamil.com</v>
       </c>
       <c r="H8" t="str">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I8" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J8" t="str">
-        <v>globalTiger</v>
+        <v>tcs</v>
       </c>
       <c r="K8" t="str">
         <v>3</v>
       </c>
       <c r="L8" t="str">
-        <v>can proceed further</v>
+        <v>can_proceed_for_next_level_of_interview</v>
       </c>
       <c r="M8" t="str">
         <v>shortlisted</v>
@@ -631,22 +631,22 @@
     </row>
     <row r="9">
       <c r="B9">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C9" t="str">
         <v>2024-01-02</v>
       </c>
       <c r="D9" t="str">
-        <v>rocketry</v>
+        <v>perl</v>
       </c>
       <c r="E9" t="str">
-        <v>peter griffin</v>
+        <v>naman roy</v>
       </c>
       <c r="F9" t="str">
-        <v>55667799</v>
+        <v>55667788</v>
       </c>
       <c r="G9" t="str">
-        <v>peter@gmail.com</v>
+        <v>roy1998@gmail.com</v>
       </c>
       <c r="H9" t="str">
         <v>16</v>
@@ -655,13 +655,13 @@
         <v>15</v>
       </c>
       <c r="J9" t="str">
-        <v>nasa</v>
+        <v>globalTiger</v>
       </c>
       <c r="K9" t="str">
         <v>3</v>
       </c>
       <c r="L9" t="str">
-        <v>select_for_further_interview_level</v>
+        <v>can proceed further</v>
       </c>
       <c r="M9" t="str">
         <v>shortlisted</v>
@@ -669,22 +669,22 @@
     </row>
     <row r="10">
       <c r="B10">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C10" t="str">
         <v>2024-01-02</v>
       </c>
       <c r="D10" t="str">
-        <v>java</v>
+        <v>rocketry</v>
       </c>
       <c r="E10" t="str">
-        <v>surma</v>
+        <v>peter griffin</v>
       </c>
       <c r="F10" t="str">
-        <v>55667788</v>
+        <v>55667799</v>
       </c>
       <c r="G10" t="str">
-        <v>surma@gmail.com</v>
+        <v>peter@gmail.com</v>
       </c>
       <c r="H10" t="str">
         <v>16</v>
@@ -693,13 +693,13 @@
         <v>15</v>
       </c>
       <c r="J10" t="str">
-        <v>umbrala corporation</v>
+        <v>nasa</v>
       </c>
       <c r="K10" t="str">
         <v>3</v>
       </c>
       <c r="L10" t="str">
-        <v>upgraded for further interview level</v>
+        <v>select_for_further_interview_level</v>
       </c>
       <c r="M10" t="str">
         <v>shortlisted</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="11">
       <c r="B11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C11" t="str">
         <v>2024-01-02</v>
@@ -716,13 +716,13 @@
         <v>java</v>
       </c>
       <c r="E11" t="str">
-        <v>cleveland</v>
+        <v>surma</v>
       </c>
       <c r="F11" t="str">
         <v>55667788</v>
       </c>
       <c r="G11" t="str">
-        <v>cleveland@gmail.com</v>
+        <v>surma@gmail.com</v>
       </c>
       <c r="H11" t="str">
         <v>16</v>
@@ -731,7 +731,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="str">
-        <v>nasa corporation</v>
+        <v>umbrala corporation</v>
       </c>
       <c r="K11" t="str">
         <v>3</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="12">
       <c r="B12">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C12" t="str">
         <v>2024-01-02</v>
@@ -754,13 +754,13 @@
         <v>java</v>
       </c>
       <c r="E12" t="str">
-        <v>cleveland1</v>
+        <v>cleveland</v>
       </c>
       <c r="F12" t="str">
         <v>55667788</v>
       </c>
       <c r="G12" t="str">
-        <v>cleveland1@gmail.com</v>
+        <v>cleveland@gmail.com</v>
       </c>
       <c r="H12" t="str">
         <v>16</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="13">
       <c r="B13">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C13" t="str">
         <v>2024-01-02</v>
@@ -792,13 +792,13 @@
         <v>java</v>
       </c>
       <c r="E13" t="str">
-        <v>surmak</v>
+        <v>cleveland1</v>
       </c>
       <c r="F13" t="str">
         <v>55667788</v>
       </c>
       <c r="G13" t="str">
-        <v>surmka@gmail.com</v>
+        <v>cleveland1@gmail.com</v>
       </c>
       <c r="H13" t="str">
         <v>16</v>
@@ -807,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="J13" t="str">
-        <v>umbrala corporation</v>
+        <v>nasa corporation</v>
       </c>
       <c r="K13" t="str">
         <v>3</v>
@@ -821,39 +821,191 @@
     </row>
     <row r="14">
       <c r="B14">
+        <v>319</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2024-01-02</v>
+      </c>
+      <c r="D14" t="str">
+        <v>java</v>
+      </c>
+      <c r="E14" t="str">
+        <v>surmak</v>
+      </c>
+      <c r="F14" t="str">
+        <v>55667788</v>
+      </c>
+      <c r="G14" t="str">
+        <v>surmka@gmail.com</v>
+      </c>
+      <c r="H14" t="str">
+        <v>16</v>
+      </c>
+      <c r="I14" t="str">
+        <v>15</v>
+      </c>
+      <c r="J14" t="str">
+        <v>umbrala corporation</v>
+      </c>
+      <c r="K14" t="str">
+        <v>3</v>
+      </c>
+      <c r="L14" t="str">
+        <v>upgraded for further interview level</v>
+      </c>
+      <c r="M14" t="str">
+        <v>shortlisted</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15">
         <v>320</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C15" t="str">
         <v>2024-02-20</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D15" t="str">
         <v>golang</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E15" t="str">
         <v>harsh</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F15" t="str">
         <v>123456789</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G15" t="str">
         <v>harsh@mai.com</v>
       </c>
-      <c r="H14" t="str">
+      <c r="H15" t="str">
         <v>10</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I15" t="str">
         <v>9</v>
       </c>
-      <c r="J14" t="str">
+      <c r="J15" t="str">
         <v>wipro</v>
       </c>
-      <c r="K14" t="str">
-        <v>3</v>
-      </c>
-      <c r="L14" t="str">
+      <c r="K15" t="str">
+        <v>3</v>
+      </c>
+      <c r="L15" t="str">
         <v>can_proceed_for_next_level_of_inteview</v>
       </c>
-      <c r="M14" t="str">
+      <c r="M15" t="str">
+        <v>shortlisted</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16">
+        <v>321</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2024-01-02</v>
+      </c>
+      <c r="D16" t="str">
+        <v>java</v>
+      </c>
+      <c r="E16" t="str">
+        <v>surmakkkk</v>
+      </c>
+      <c r="F16" t="str">
+        <v>55667788</v>
+      </c>
+      <c r="G16" t="str">
+        <v>surmkajjjj@gmail.com</v>
+      </c>
+      <c r="H16" t="str">
+        <v>16</v>
+      </c>
+      <c r="I16" t="str">
+        <v>15</v>
+      </c>
+      <c r="J16" t="str">
+        <v>umbrala corporation</v>
+      </c>
+      <c r="K16" t="str">
+        <v>3</v>
+      </c>
+      <c r="L16" t="str">
+        <v>upgraded for further interview level</v>
+      </c>
+      <c r="M16" t="str">
+        <v>shortlisted</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17">
+        <v>322</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2024-01-02</v>
+      </c>
+      <c r="D17" t="str">
+        <v>java</v>
+      </c>
+      <c r="E17" t="str">
+        <v>surmakkkk</v>
+      </c>
+      <c r="F17" t="str">
+        <v>55667788</v>
+      </c>
+      <c r="G17" t="str">
+        <v>surmkajjjj@gmail.com</v>
+      </c>
+      <c r="H17" t="str">
+        <v>16</v>
+      </c>
+      <c r="I17" t="str">
+        <v>15</v>
+      </c>
+      <c r="J17" t="str">
+        <v>umbrala corporation</v>
+      </c>
+      <c r="K17" t="str">
+        <v>3</v>
+      </c>
+      <c r="L17" t="str">
+        <v>upgraded for further interview level</v>
+      </c>
+      <c r="M17" t="str">
+        <v>shortlisted</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18">
+        <v>323</v>
+      </c>
+      <c r="C18" t="str">
+        <v>2024-01-02</v>
+      </c>
+      <c r="D18" t="str">
+        <v>java</v>
+      </c>
+      <c r="E18" t="str">
+        <v>updated name</v>
+      </c>
+      <c r="F18" t="str">
+        <v>55667788</v>
+      </c>
+      <c r="G18" t="str">
+        <v>surmkaj@gmail.com</v>
+      </c>
+      <c r="H18" t="str">
+        <v>16</v>
+      </c>
+      <c r="I18" t="str">
+        <v>15</v>
+      </c>
+      <c r="J18" t="str">
+        <v>umbrala corporation</v>
+      </c>
+      <c r="K18" t="str">
+        <v>3</v>
+      </c>
+      <c r="L18" t="str">
+        <v>upgraded for further interview level</v>
+      </c>
+      <c r="M18" t="str">
         <v>shortlisted</v>
       </c>
     </row>
